--- a/order.xlsx
+++ b/order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\personal\paper-trading-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267C34F-31B7-463F-9D89-671F10945FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE7560-DC45-40B2-9BBC-12BC6151BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20880" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,103 +25,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Loại Lệnh</t>
   </si>
   <si>
-    <t>Trạng Thái Lệnh</t>
-  </si>
-  <si>
-    <t>Tổng Tiền Mặt (total_cash)</t>
-  </si>
-  <si>
-    <t>Tiền Khả Dụng (available_cash)</t>
-  </si>
-  <si>
-    <t>Tiền Chờ Mua (pending_buy_cash)</t>
-  </si>
-  <si>
-    <t>Tổng CK (total_quantity)</t>
-  </si>
-  <si>
-    <t>CK Khả Dụng (available_quantity)</t>
-  </si>
-  <si>
-    <t>CK Chờ Bán (pending_sell_quantity)</t>
-  </si>
-  <si>
-    <t>Giá Vốn (cost_basis)</t>
-  </si>
-  <si>
-    <t>Lãi/Lỗ Đã Thực Hiện (realized_pnl)</t>
-  </si>
-  <si>
-    <t>MUA</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>↔</t>
-  </si>
-  <si>
-    <t>- (Giá trị lệnh + Phí dự kiến)</t>
-  </si>
-  <si>
-    <t>+ (Giá trị lệnh + Phí dự kiến)</t>
-  </si>
-  <si>
-    <t>Complete (Khớp)</t>
-  </si>
-  <si>
-    <t>- (Giá trị khớp + Phí)</t>
-  </si>
-  <si>
-    <t>↔ (So với Pending)*¹</t>
-  </si>
-  <si>
-    <t>+ (Lượng khớp)</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>Fail / Cancelled</t>
-  </si>
-  <si>
-    <t>+ (Hoàn lại tiền chờ mua)</t>
-  </si>
-  <si>
-    <t>- (Hoàn lại tiền chờ mua)</t>
-  </si>
-  <si>
-    <t>BÁN</t>
-  </si>
-  <si>
-    <t>- (Lượng đặt bán)</t>
-  </si>
-  <si>
-    <t>+ (Lượng đặt bán)</t>
-  </si>
-  <si>
-    <t>+ (Giá trị khớp - Phí)*²</t>
-  </si>
-  <si>
-    <t>- (Lượng khớp)</t>
-  </si>
-  <si>
-    <t>↔ (So với Pending)</t>
-  </si>
-  <si>
-    <t>+ (Hoàn lại CK chờ bán)</t>
+    <t>Sự kiện Trigger</t>
+  </si>
+  <si>
+    <t>Trạng thái Lệnh Mới</t>
+  </si>
+  <si>
+    <t>Mô tả Thay đổi</t>
+  </si>
+  <si>
+    <t>Điều kiện / Ghi chú Quan trọng</t>
+  </si>
+  <si>
+    <t>Đặt lệnh mới</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>accounts.available_cash</t>
+  </si>
+  <si>
+    <t>accounts.securing_amount</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Lệnh khớp thành công</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>holdings.cost_basis_per_share</t>
+  </si>
+  <si>
+    <t>Cập nhật giá vốn là cực kỳ quan trọng.</t>
+  </si>
+  <si>
+    <t>Tiền về tài khoản ngay lập tức trong mô hình T+0.</t>
+  </si>
+  <si>
+    <t>Lệnh bị Hủy</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>Lệnh phải đang ở trạng thái PENDING (hoặc trạng thái cho phép hủy khác).</t>
+  </si>
+  <si>
+    <t>Lệnh Thất bại</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Thuộc tính Bị ảnh hưởng (accounts hoặc holdings)</t>
+  </si>
+  <si>
+    <t>Giảm đi quantity * estimated_price</t>
+  </si>
+  <si>
+    <t>Phải có đủ available_cash. estimated_price có thể là giá thị trường hiện tại + một biên độ an toàn, hoặc giá trần nếu có.</t>
+  </si>
+  <si>
+    <t>Tăng lên quantity * estimated_price</t>
+  </si>
+  <si>
+    <t>holdings.locked_quantity (cho symbol tương ứng)</t>
+  </si>
+  <si>
+    <t>Tăng lên quantity</t>
+  </si>
+  <si>
+    <t>Phải có đủ cổ phiếu khả dụng: holdings.quantity - holdings.locked_quantity &gt;= quantity.</t>
+  </si>
+  <si>
+    <t>Giảm đi original_locked_amount (số tiền đã khóa lúc PENDING)</t>
+  </si>
+  <si>
+    <t>executed_quantity và average_execution_price được xác định bởi hệ thống khớp lệnh.</t>
+  </si>
+  <si>
+    <t>Tăng lên original_locked_amount - (executed_quantity * average_execution_price) (Hoàn tiền chênh lệch nếu giá khớp thấp hơn giá khóa)</t>
+  </si>
+  <si>
+    <t>holdings.quantity (cho symbol tương ứng)</t>
+  </si>
+  <si>
+    <t>Tăng lên executed_quantity (Nếu chưa có mã này thì tạo dòng mới)</t>
+  </si>
+  <si>
+    <t>Tính lại giá vốn bình quân: ((old_qty * old_cost) + (exec_qty * exec_price)) / (old_qty + exec_qty)</t>
+  </si>
+  <si>
+    <t>Giảm đi executed_quantity</t>
+  </si>
+  <si>
+    <t>Giảm đi executed_quantity (Nếu quantity về 0, có thể xóa dòng holding hoặc giữ lại với quantity=0)</t>
+  </si>
+  <si>
+    <t>Tăng lên executed_quantity * average_execution_price (Trừ phí nếu có)</t>
+  </si>
+  <si>
+    <t>Tăng lên original_locked_amount (Hoàn lại toàn bộ tiền đã khóa)</t>
+  </si>
+  <si>
+    <t>Giảm đi quantity (lượng cổ phiếu đã khóa lúc PENDING)</t>
+  </si>
+  <si>
+    <t>Giảm đi original_locked_amount (nếu đã kịp khóa trước khi fail)</t>
+  </si>
+  <si>
+    <t>Xảy ra khi không đủ tiền, lỗi hệ thống, hoặc các lý do khác sau khi lệnh đã vào trạng thái PENDING (hoặc trước đó nếu kiểm tra ngay lúc đặt).</t>
+  </si>
+  <si>
+    <t>Tăng lên original_locked_amount (Hoàn lại tiền đã khóa, nếu có)</t>
+  </si>
+  <si>
+    <t>Giảm đi quantity (lượng cổ phiếu đã khóa lúc PENDING, nếu có)</t>
+  </si>
+  <si>
+    <t>Xảy ra khi không đủ cổ phiếu (do lỗi logic?), lỗi hệ thống, hoặc các lý do khác sau khi lệnh đã vào trạng thái PENDING (hoặc trước đó nếu kiểm tra ngay).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,28 +172,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,21 +189,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -182,29 +220,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -480,238 +690,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.84375" customWidth="1"/>
-    <col min="4" max="4" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="D7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
+      <c r="E17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"CANCELLED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"CANCELLED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"COMPLETE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"PENDING"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/order.xlsx
+++ b/order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\personal\paper-trading-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE7560-DC45-40B2-9BBC-12BC6151BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB656E-9937-4810-9041-BCC61931E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20880" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Loại Lệnh</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Sự kiện Trigger</t>
   </si>
   <si>
-    <t>Trạng thái Lệnh Mới</t>
-  </si>
-  <si>
     <t>Mô tả Thay đổi</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>SELL</t>
   </si>
   <si>
-    <t>Lệnh khớp thành công</t>
-  </si>
-  <si>
     <t>COMPLETE</t>
   </si>
   <si>
@@ -117,27 +111,15 @@
     <t>executed_quantity và average_execution_price được xác định bởi hệ thống khớp lệnh.</t>
   </si>
   <si>
-    <t>Tăng lên original_locked_amount - (executed_quantity * average_execution_price) (Hoàn tiền chênh lệch nếu giá khớp thấp hơn giá khóa)</t>
-  </si>
-  <si>
     <t>holdings.quantity (cho symbol tương ứng)</t>
   </si>
   <si>
     <t>Tăng lên executed_quantity (Nếu chưa có mã này thì tạo dòng mới)</t>
   </si>
   <si>
-    <t>Tính lại giá vốn bình quân: ((old_qty * old_cost) + (exec_qty * exec_price)) / (old_qty + exec_qty)</t>
-  </si>
-  <si>
     <t>Giảm đi executed_quantity</t>
   </si>
   <si>
-    <t>Giảm đi executed_quantity (Nếu quantity về 0, có thể xóa dòng holding hoặc giữ lại với quantity=0)</t>
-  </si>
-  <si>
-    <t>Tăng lên executed_quantity * average_execution_price (Trừ phí nếu có)</t>
-  </si>
-  <si>
     <t>Tăng lên original_locked_amount (Hoàn lại toàn bộ tiền đã khóa)</t>
   </si>
   <si>
@@ -157,13 +139,37 @@
   </si>
   <si>
     <t>Xảy ra khi không đủ cổ phiếu (do lỗi logic?), lỗi hệ thống, hoặc các lý do khác sau khi lệnh đã vào trạng thái PENDING (hoặc trước đó nếu kiểm tra ngay).</t>
+  </si>
+  <si>
+    <t>Trạng thái Lệnh</t>
+  </si>
+  <si>
+    <t>Lệnh khớp 
+thành công</t>
+  </si>
+  <si>
+    <t>Lệnh khớp
+thành công</t>
+  </si>
+  <si>
+    <t>Tăng lên original_locked_amount - (executed_quantity * average_execution_price)</t>
+  </si>
+  <si>
+    <t>Tính lại giá vốn bình quân: 
+((old_qty * old_cost) + (exec_qty * exec_price)) / (old_qty + exec_qty)</t>
+  </si>
+  <si>
+    <t>Giảm đi executed_quantity </t>
+  </si>
+  <si>
+    <t>Tăng lên executed_quantity * average_execution_price </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +231,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -338,19 +368,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,8 +397,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -692,280 +734,287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="117.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="70.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="128.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="D6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="D8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="D10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="C17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="F17" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="D16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -987,5 +1036,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>